--- a/orders.xlsx
+++ b/orders.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCIT\CST\COMP 3 V (Prog Paradigms)\COMP3522 Object Oriented Programming 2 6.0\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCIT\CST\COMP 3 V (Prog Paradigms)\COMP3522 Object Oriented Programming 2 6.0\COMP3522_Assignment2_A01054885_A01005378\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -306,13 +308,189 @@
   </si>
   <si>
     <t>Sea Salt</t>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa's Workshop
+(C____T)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensions (width, height)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christmas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_rooms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC (Remote Controlled) Spider
+(H____T)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halloween</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halloween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_glow (Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spider_type
+(Tarantula/Wolf Spider)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Bunny
+(E____T)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_batteries (Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colour
+(Orange/Blue/Pink)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuffed Animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dancing Skeleton
+(H____S)
+(Acrylic &amp; Polyester Fiberfill)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_glow (Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halloween</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reindeer
+(C____S)
+(Cotton &amp; Wool)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_glow (Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffing
+(Polyester Fiberfill/Wool)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easter Bunny 
+(E____S)
+(Linen &amp; Polyester Fiberfill)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colour
+(White/Grey/Pink/Blue)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size
+(S/M/L)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabric
+(Acrylic/Cotton/Linen)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumpkin Caramel Toffee
+(H____C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety
+(Sea Salt/Regular)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candy Canes
+(C____C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colour
+(Red/Green)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creme Eggs
+(E____C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_lactose (Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_nuts (Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +505,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -344,14 +529,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,9 +937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,4 +1548,1445 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="10">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10">
+        <v>11</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="10">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>4</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="10">
+        <v>10</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCIT\CST\COMP 3 V (Prog Paradigms)\COMP3522 Object Oriented Programming 2 6.0\COMP3522_Assignment2_A01054885_A01005378\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicky\PycharmProjects\COMP3522_Assignment2_A01054885_A01005378\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEBDFA-83D7-4642-816C-1550AA393F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5895" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,25 +490,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -623,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -934,37 +935,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="33.265625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="56.875" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" customWidth="1"/>
+    <col min="7" max="7" width="56.86328125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
-    <col min="17" max="17" width="8.375" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" customWidth="1"/>
+    <col min="13" max="13" width="13.265625" customWidth="1"/>
+    <col min="14" max="14" width="10.1328125" customWidth="1"/>
+    <col min="15" max="15" width="14.86328125" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="8.3984375" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="28.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="28.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="28.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="28.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="28.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="28.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="28.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="28.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="28.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1534,13 +1535,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7">
       <c r="G18" s="1"/>
     </row>
   </sheetData>
@@ -1551,26 +1552,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>92</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
         <v>97</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -1615,7 +1616,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -1630,7 +1631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="11"/>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -1641,7 +1642,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -1652,7 +1653,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="28.5">
       <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -1663,7 +1664,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -1678,7 +1679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="28.5">
       <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>110</v>
@@ -1689,7 +1690,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -1697,7 +1698,7 @@
       <c r="D11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="11" t="s">
         <v>112</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>1</v>
@@ -1723,7 +1724,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
         <v>2</v>
@@ -1732,7 +1733,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>0</v>
@@ -1741,7 +1742,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
@@ -1756,7 +1757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -1765,7 +1766,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -1774,7 +1775,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="28.5">
       <c r="B19" s="11"/>
       <c r="C19" s="9" t="s">
         <v>118</v>
@@ -1789,7 +1790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="28.5">
       <c r="B20" s="11"/>
       <c r="C20" s="9" t="s">
         <v>121</v>
@@ -1798,7 +1799,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.5">
       <c r="B21" s="11"/>
       <c r="C21" s="7" t="s">
         <v>122</v>
@@ -1807,7 +1808,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="11" t="s">
         <v>123</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
         <v>1</v>
@@ -1833,7 +1834,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -1842,7 +1843,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>0</v>
@@ -1857,7 +1858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -1866,7 +1867,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -1875,7 +1876,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
         <v>7</v>
@@ -1890,7 +1891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
         <v>129</v>
@@ -1899,7 +1900,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
         <v>130</v>
@@ -1910,13 +1911,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
@@ -1927,16 +1931,13 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,43 +1946,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.5">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.5">
       <c r="A10" s="10">
         <v>11</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="28.5">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.5">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="28.5">
       <c r="A16" s="10">
         <v>7</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="28.5">
       <c r="A18" s="10">
         <v>8</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="28.5">
       <c r="A20" s="10">
         <v>10</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="10">
         <v>9</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="10">
         <v>6</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <v>13</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="28.5">
       <c r="A28" s="10">
         <v>14</v>
       </c>
@@ -2976,13 +2977,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="G31" s="1"/>
     </row>
   </sheetData>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicky\PycharmProjects\COMP3522_Assignment2_A01054885_A01005378\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEBDFA-83D7-4642-816C-1550AA393F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="UML Diagram" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,25 +490,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -624,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,6 +637,4009 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>386443</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3788229" y="413657"/>
+          <a:ext cx="1303564" cy="797380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Menu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- process_orders()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- check_inventory()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> exit()</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>255814</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6678385" y="345621"/>
+          <a:ext cx="1741715" cy="940255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Store</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- receive_orders()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- get_stock()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> daily_transaction_report()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- inventory -&gt; hashmap</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541564</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>351064</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7345135" y="5674179"/>
+          <a:ext cx="1170215" cy="768804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ShopItem(ABC)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> product_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50346</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6901542" y="1755322"/>
+          <a:ext cx="1313090" cy="650422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Order Processor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- read_file()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- factory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_mapping</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>363311</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534761</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3765097" y="1397454"/>
+          <a:ext cx="1532164" cy="1357993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- order_number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- product_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> item</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- product_details: dict()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- factory</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268061</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2818040"/>
+          <a:ext cx="1726747" cy="787853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Factory(ABC)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- create_candy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> create_toy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- create_stuffed_animals()</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>362349</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70274</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1723063" y="4015629"/>
+          <a:ext cx="1748997" cy="873578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ChristmasFactory</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>create_toy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- create_stuffed_animal()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- create_candy()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581023</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>291191</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6704237" y="4037240"/>
+          <a:ext cx="1751240" cy="873578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HalloweenFactory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>create_toy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- create_stuffed_animal()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- create_candy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>621847</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>303439</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10827204" y="4005943"/>
+          <a:ext cx="1722664" cy="873578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EasterFactory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>create_toy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- create_stuffed_animal()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- create_candy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11361965" y="7004958"/>
+          <a:ext cx="1008289" cy="1144360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Candy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- has_nuts</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- has_lactose</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- product_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>420460</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503714" y="6981825"/>
+          <a:ext cx="1318532" cy="1144361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Toy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- has_batteries</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- min_age</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- product_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293912</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>665388</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10499269" y="8660946"/>
+          <a:ext cx="1732190" cy="478971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PumpkinCaramelToffee</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- variety</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526597</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160565</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9371240" y="8650062"/>
+          <a:ext cx="994682" cy="478970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CandyCanes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- colour</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>159201</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449033</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12405630" y="8667751"/>
+          <a:ext cx="970189" cy="478970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CremeEggs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- pack_size</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289833</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>53069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1650547" y="8625569"/>
+          <a:ext cx="1255939" cy="845003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SantasWorkshop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- width</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> height</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- room_num</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454477</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145595</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175906" y="8629651"/>
+          <a:ext cx="1051832" cy="1001485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RCSpider</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> speed</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> jump_height</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- has_glow</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- spider_type</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372836</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6805</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4454979" y="8641899"/>
+          <a:ext cx="994683" cy="631371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RobotBunny</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- num_sound</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> colour</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431346</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7282542" y="6859361"/>
+          <a:ext cx="1313090" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>StuffedAnimals</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- stuffing -&gt; enum</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- size -&gt; enum</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- fabric -&gt; enum</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- product_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>568779</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>131992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6691993" y="8643260"/>
+          <a:ext cx="1265465" cy="469446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DancingSkeleton</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- has_glow</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246290</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398689</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689147" y="8654144"/>
+          <a:ext cx="832756" cy="459920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reindeer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- has_glow</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>625927</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269420</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8109856" y="8654143"/>
+          <a:ext cx="1004207" cy="474889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EasterBunny</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- colour</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5091793" y="812347"/>
+          <a:ext cx="1586592" cy="3402"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85045</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95928</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7568974" y="3605893"/>
+          <a:ext cx="10883" cy="431347"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92529</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118916</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="꺾인 연결선 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9549081" y="1870036"/>
+          <a:ext cx="163284" cy="4108529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556489</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86654</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="꺾인 연결선 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4997013" y="1442059"/>
+          <a:ext cx="174118" cy="4973023"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534761</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="직선 화살표 연결선 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5297261" y="2076451"/>
+          <a:ext cx="1604281" cy="4082"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74158</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="직선 화살표 연결선 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7549243" y="1285876"/>
+          <a:ext cx="8844" cy="469446"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74158</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85045</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7558087" y="2405744"/>
+          <a:ext cx="10887" cy="412296"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237445</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299359</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>53070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="꺾인 연결선 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2881654" y="7806078"/>
+          <a:ext cx="216354" cy="1422629"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299360</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189822</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="꺾인 연결선 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4207671" y="7897249"/>
+          <a:ext cx="238125" cy="1251176"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>662669</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="꺾인 연결선 99"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6604227" y="7937728"/>
+          <a:ext cx="217715" cy="1215118"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="꺾인 연결선 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7857446" y="7899628"/>
+          <a:ext cx="217713" cy="1291317"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>343581</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="꺾인 연결선 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10528867" y="7803358"/>
+          <a:ext cx="186418" cy="1506990"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>644297</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="꺾인 연결선 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="12024292" y="7801317"/>
+          <a:ext cx="204107" cy="1528761"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455158</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="직선 화살표 연결선 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7930243" y="6442983"/>
+          <a:ext cx="8844" cy="416378"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441552</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>612326</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="꺾인 연결선 122"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5145883" y="4711812"/>
+          <a:ext cx="287111" cy="4252916"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="꺾인 연결선 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9438255" y="4577102"/>
+          <a:ext cx="310244" cy="4545467"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556492</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="꺾인 연결선 162"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="355205" y="6411788"/>
+          <a:ext cx="3764939" cy="719776"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12051"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556492</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462644</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="꺾인 연결선 164"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2369062" y="5117707"/>
+          <a:ext cx="3764939" cy="3307938"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12051"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="꺾인 연결선 201"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="5347610"/>
+          <a:ext cx="3701144" cy="3320142"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95929</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="꺾인 연결선 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3966142" y="4999605"/>
+          <a:ext cx="3702503" cy="3524928"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4796"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441552</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="꺾인 연결선 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3180669" y="8108498"/>
+          <a:ext cx="503465" cy="538842"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44595"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>479650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="꺾인 연결선 227"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11359923" y="8154759"/>
+          <a:ext cx="511628" cy="500746"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>521155</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455158</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70761</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="꺾인 연결선 233"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7397182" y="8101356"/>
+          <a:ext cx="469449" cy="614361"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="직선 화살표 연결선 240"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6994071" y="5089071"/>
+          <a:ext cx="13608" cy="3551465"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="243" name="꺾인 연결선 242"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7409090" y="5259161"/>
+          <a:ext cx="3565071" cy="3224892"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189821</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="꺾인 연결선 248"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6439240" y="3392603"/>
+          <a:ext cx="3762378" cy="6736215"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16727"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="직선 화살표 연결선 251"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8899071" y="5524500"/>
+          <a:ext cx="27215" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>122466</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="254" name="꺾인 연결선 253"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10872108" y="6327321"/>
+          <a:ext cx="3156857" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -431"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,37 +4938,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="33.265625" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" customWidth="1"/>
-    <col min="7" max="7" width="56.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="56.875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" customWidth="1"/>
-    <col min="13" max="13" width="13.265625" customWidth="1"/>
-    <col min="14" max="14" width="10.1328125" customWidth="1"/>
-    <col min="15" max="15" width="14.86328125" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" customWidth="1"/>
-    <col min="17" max="17" width="8.3984375" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="8.375" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +5042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1074,7 +5077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="28.5">
+    <row r="3" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1109,7 +5112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="28.5">
+    <row r="4" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1144,7 +5147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1179,7 +5182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="28.5">
+    <row r="6" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1220,7 +5223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1252,7 +5255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="28.5">
+    <row r="8" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1287,7 +5290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="28.5">
+    <row r="9" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1322,7 +5325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1354,7 +5357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="28.5">
+    <row r="11" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1389,7 +5392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="28.5">
+    <row r="12" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1430,7 +5433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="28.5">
+    <row r="13" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1471,7 +5474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1503,7 +5506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="28.5">
+    <row r="15" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1535,13 +5538,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
     </row>
   </sheetData>
@@ -1552,26 +5555,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:6">
+    <row r="1" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>92</v>
       </c>
@@ -1588,7 +5591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>97</v>
       </c>
@@ -1605,7 +5608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -1616,7 +5619,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -1631,7 +5634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -1642,7 +5645,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -1653,7 +5656,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="2:6" ht="28.5">
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -1664,7 +5667,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -1679,7 +5682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="28.5">
+    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>110</v>
@@ -1690,7 +5693,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -1698,7 +5701,7 @@
       <c r="D11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>112</v>
       </c>
@@ -1715,7 +5718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>1</v>
@@ -1724,7 +5727,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
         <v>2</v>
@@ -1733,7 +5736,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>0</v>
@@ -1742,7 +5745,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
@@ -1757,7 +5760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -1766,7 +5769,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -1775,7 +5778,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6" ht="28.5">
+    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="9" t="s">
         <v>118</v>
@@ -1790,7 +5793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="28.5">
+    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="9" t="s">
         <v>121</v>
@@ -1799,7 +5802,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6" ht="28.5">
+    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="7" t="s">
         <v>122</v>
@@ -1808,7 +5811,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>123</v>
       </c>
@@ -1825,7 +5828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
         <v>1</v>
@@ -1834,7 +5837,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -1843,7 +5846,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>0</v>
@@ -1858,7 +5861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -1867,7 +5870,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -1876,7 +5879,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
         <v>7</v>
@@ -1891,7 +5894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
         <v>129</v>
@@ -1900,7 +5903,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
         <v>130</v>
@@ -1911,6 +5914,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="E22:E24"/>
@@ -1921,23 +5941,6 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="F28:F30"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1946,43 +5949,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="10" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +6020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2052,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +6090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2122,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2157,7 +6160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2192,7 +6195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +6236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5">
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2274,7 +6277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +6318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5">
+    <row r="10" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>11</v>
       </c>
@@ -2356,7 +6359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2397,7 +6400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5">
+    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -2438,7 +6441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +6476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5">
+    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -2508,7 +6511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
@@ -2543,7 +6546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.5">
+    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>7</v>
       </c>
@@ -2578,7 +6581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2613,7 +6616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.5">
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>8</v>
       </c>
@@ -2648,7 +6651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +6686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.5">
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>10</v>
       </c>
@@ -2718,7 +6721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -2750,7 +6753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>9</v>
       </c>
@@ -2782,7 +6785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2814,7 +6817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>6</v>
       </c>
@@ -2846,7 +6849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +6884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>13</v>
       </c>
@@ -2913,7 +6916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +6948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.5">
+    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>14</v>
       </c>
@@ -2977,17 +6980,34 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>